--- a/log_history/Y3_B2526_Biochemistry_Lab_CBL_scanner1762242630254_7a90030d90e0f609e73adc4521ebd0a88432cbbf18ae5cb91cb78dfe949909e2.xlsx
+++ b/log_history/Y3_B2526_Biochemistry_Lab_CBL_scanner1762242630254_7a90030d90e0f609e73adc4521ebd0a88432cbbf18ae5cb91cb78dfe949909e2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Biochemistry_Lab_CBL" sheetId="1" r:id="rId1"/>
+    <sheet name="Session" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>

--- a/log_history/Y3_B2526_Biochemistry_Lab_CBL_scanner1762242630254_7a90030d90e0f609e73adc4521ebd0a88432cbbf18ae5cb91cb78dfe949909e2.xlsx
+++ b/log_history/Y3_B2526_Biochemistry_Lab_CBL_scanner1762242630254_7a90030d90e0f609e73adc4521ebd0a88432cbbf18ae5cb91cb78dfe949909e2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Session" sheetId="1" r:id="rId1"/>
+    <sheet name="Biochemistry_Lab_CBL" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
